--- a/biology/Zoologie/Cryptocorynetes/Cryptocorynetes.xlsx
+++ b/biology/Zoologie/Cryptocorynetes/Cryptocorynetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptocorynetes est un genre de rémipèdes de la famille des Cryptocorynetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptocorynetes est un genre de rémipèdes de la famille des Cryptocorynetidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques des Bahamas.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 février 2014) :
 Cryptocorynetes elmorei Hazerli, Koenemann, Iliffe, 2009
 Cryptocorynetes haptodiscus Yager, 1987
 Cryptocorynetes longulus Wollermann, Koenemann, Iliffe, 2007</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yager, 1987 : Cryptocorynetes haptodiscus, new genus, new species, and Speleonectes benjamini, new species, of remipede crustaceans from anchialine caves in the Bahamas, with remarks on distribution and ecology. Proceedings of the Biological Society of Washington, vol. 100, no 2, p. 302-320 (texte intégral).</t>
         </is>
